--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_6_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_6_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1416072.356722438</v>
+        <v>-1419088.156372445</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8656875.781858983</v>
+        <v>8656875.781858984</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>268.8417680073007</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>84.28618120273146</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -859,28 +859,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>187.5766315601735</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>169.0167291702126</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>111.6662751914705</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>282.9766153788673</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>224.9913792784364</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>122.5330959677157</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>87.68060661386916</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>51.30079766335502</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>155.4526127311942</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,10 +1385,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873211</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,13 +1421,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>163.6898441249724</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1585,16 +1585,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238261</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>157.2469799052652</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,10 +1658,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>135.5715611843232</v>
       </c>
       <c r="G16" t="n">
-        <v>4.799612689341665</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,22 +1816,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722627</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2008,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2059,13 +2059,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>20.89395506223652</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>14.20188851094976</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,10 +2239,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>84.69473660442847</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2296,10 +2296,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>141.4672758889782</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2482,10 +2482,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>37.59617708813261</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>23.35772589727853</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,10 +2722,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>41.02686156550273</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541845</v>
+        <v>116.0100653541848</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652651</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128544</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3661,19 +3661,19 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569552</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3800,7 +3800,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128544</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1543.155461091169</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="C2" t="n">
-        <v>1543.155461091169</v>
+        <v>743.4641313436935</v>
       </c>
       <c r="D2" t="n">
-        <v>1184.889762484419</v>
+        <v>743.4641313436935</v>
       </c>
       <c r="E2" t="n">
-        <v>799.1015098861748</v>
+        <v>743.4641313436935</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>743.4641313436935</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>325.5003232418803</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4358,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2388.358616186807</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W2" t="n">
-        <v>2303.221059416371</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X2" t="n">
-        <v>1929.755301155291</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y2" t="n">
-        <v>1929.755301155291</v>
+        <v>1112.426648284105</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4425,7 +4425,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4507,25 +4507,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245972</v>
+        <v>509.2407200497801</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245972</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="U4" t="n">
-        <v>224.6669506791651</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V4" t="n">
-        <v>224.6669506791651</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
         <v>53.94298182036445</v>
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1834.613306652565</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C5" t="n">
-        <v>1834.613306652565</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D5" t="n">
-        <v>1476.347608045814</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.752638628377</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.752638628377</v>
+        <v>2356.285436519557</v>
       </c>
       <c r="W5" t="n">
-        <v>2224.752638628377</v>
+        <v>2356.285436519557</v>
       </c>
       <c r="X5" t="n">
-        <v>2224.752638628377</v>
+        <v>1982.819678258477</v>
       </c>
       <c r="Y5" t="n">
-        <v>1834.613306652565</v>
+        <v>1592.680346282665</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4653,34 +4653,34 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>211.6913543878343</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C7" t="n">
-        <v>211.6913543878343</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>500.8649647332663</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>211.6913543878343</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>211.6913543878343</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W7" t="n">
-        <v>211.6913543878343</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X7" t="n">
-        <v>211.6913543878343</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y7" t="n">
-        <v>211.6913543878343</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>490.5728759019127</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C8" t="n">
-        <v>490.5728759019127</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="D8" t="n">
-        <v>490.5728759019127</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E8" t="n">
-        <v>490.5728759019127</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F8" t="n">
-        <v>483.6273751527092</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>469.7039710913002</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>142.509251127303</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V8" t="n">
-        <v>1993.54646147304</v>
+        <v>2134.880026519314</v>
       </c>
       <c r="W8" t="n">
-        <v>1640.777806202926</v>
+        <v>2134.880026519314</v>
       </c>
       <c r="X8" t="n">
-        <v>1267.312047941846</v>
+        <v>1761.414268258235</v>
       </c>
       <c r="Y8" t="n">
-        <v>877.1727159660345</v>
+        <v>1761.414268258235</v>
       </c>
     </row>
     <row r="9">
@@ -4878,22 +4878,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>252.6519168570173</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>252.6519168570173</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>252.6519168570173</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>252.6519168570173</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>105.7619693591069</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>105.7619693591069</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>105.7619693591069</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4987,25 +4987,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>571.1061430638138</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>571.1061430638138</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005474</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W10" t="n">
-        <v>473.4444960005474</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y10" t="n">
-        <v>252.6519168570173</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="11">
@@ -5018,19 +5018,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5042,25 +5042,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>919.9473678912366</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1784.466183544591</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.328657580449</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N11" t="n">
-        <v>3008.107474639231</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O11" t="n">
-        <v>3757.393206660291</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5078,7 +5078,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.56103444839442</v>
+        <v>340.7998052124422</v>
       </c>
       <c r="C13" t="n">
-        <v>95.56103444839442</v>
+        <v>340.7998052124422</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839442</v>
+        <v>340.7998052124422</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5200,7 +5200,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5212,37 +5212,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>999.103611420814</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W13" t="n">
-        <v>709.6864413838534</v>
+        <v>750.4378209406992</v>
       </c>
       <c r="X13" t="n">
-        <v>481.6968904858361</v>
+        <v>522.4482700426819</v>
       </c>
       <c r="Y13" t="n">
-        <v>260.904311342306</v>
+        <v>522.4482700426819</v>
       </c>
     </row>
     <row r="14">
@@ -5255,46 +5255,46 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>785.6651881176192</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1650.184003770974</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2628.734306600802</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N14" t="n">
-        <v>3175.513123659584</v>
+        <v>2996.062531649192</v>
       </c>
       <c r="O14" t="n">
-        <v>3692.333950986038</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P14" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
         <v>4653.975400188666</v>
@@ -5309,13 +5309,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5346,7 +5346,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5355,22 +5355,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
         <v>2436.460902902953</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>810.9179079604247</v>
+        <v>550.321481379267</v>
       </c>
       <c r="C16" t="n">
-        <v>641.9817250325178</v>
+        <v>550.321481379267</v>
       </c>
       <c r="D16" t="n">
-        <v>491.8650856201821</v>
+        <v>400.2048419669312</v>
       </c>
       <c r="E16" t="n">
-        <v>343.951992037789</v>
+        <v>400.2048419669312</v>
       </c>
       <c r="F16" t="n">
-        <v>343.951992037789</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953316</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.670849844208</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.230648292704</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892253</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598118</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.125669518531</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952191</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104705</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104705</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.657581931529</v>
+        <v>1764.657581931532</v>
       </c>
       <c r="T16" t="n">
-        <v>1764.657581931529</v>
+        <v>1542.890966501058</v>
       </c>
       <c r="U16" t="n">
-        <v>1764.657581931529</v>
+        <v>1253.788099626701</v>
       </c>
       <c r="V16" t="n">
-        <v>1509.973093725642</v>
+        <v>999.1036114208144</v>
       </c>
       <c r="W16" t="n">
-        <v>1220.555923688682</v>
+        <v>999.1036114208144</v>
       </c>
       <c r="X16" t="n">
-        <v>992.5663727906644</v>
+        <v>771.1140605227971</v>
       </c>
       <c r="Y16" t="n">
-        <v>992.5663727906644</v>
+        <v>550.321481379267</v>
       </c>
     </row>
     <row r="17">
@@ -5498,13 +5498,13 @@
         <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5516,25 +5516,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1236.699401366028</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M17" t="n">
-        <v>1770.231306037953</v>
+        <v>2949.638265046256</v>
       </c>
       <c r="N17" t="n">
-        <v>2749.9835782646</v>
+        <v>3496.417082105038</v>
       </c>
       <c r="O17" t="n">
-        <v>3547.201365906985</v>
+        <v>3999.389552984375</v>
       </c>
       <c r="P17" t="n">
-        <v>4260.556453353931</v>
+        <v>4394.163919341553</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5568,43 +5568,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
         <v>2125.96131142685</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>824.3287722635405</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C19" t="n">
-        <v>655.3925893356336</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>655.3925893356336</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>507.4794957532405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5698,25 +5698,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1644.746393431758</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1355.643526557401</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>1334.538521444031</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W19" t="n">
-        <v>1045.121351407071</v>
+        <v>894.9278122480886</v>
       </c>
       <c r="X19" t="n">
-        <v>1045.121351407071</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y19" t="n">
-        <v>824.3287722635405</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="20">
@@ -5729,16 +5729,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
@@ -5750,46 +5750,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>1098.605412891585</v>
+        <v>888.4135721382777</v>
       </c>
       <c r="L20" t="n">
-        <v>1549.639626139994</v>
+        <v>1339.447785386687</v>
       </c>
       <c r="M20" t="n">
-        <v>2528.189928969822</v>
+        <v>2317.998088216515</v>
       </c>
       <c r="N20" t="n">
-        <v>3507.942201196469</v>
+        <v>3297.750360443162</v>
       </c>
       <c r="O20" t="n">
-        <v>4010.914672075806</v>
+        <v>3800.722831322499</v>
       </c>
       <c r="P20" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5829,13 +5829,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>582.3166934139181</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>413.3805104860112</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5911,7 +5911,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5923,37 +5923,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1866.513008862231</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T22" t="n">
-        <v>1644.746393431757</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U22" t="n">
-        <v>1355.6435265574</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>1212.747288285705</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>1212.747288285705</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>984.7577373876879</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>763.9651582441578</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5972,7 +5972,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
         <v>850.213983755162</v>
@@ -5984,16 +5984,16 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>975.9286436089822</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L23" t="n">
-        <v>1840.447459262337</v>
+        <v>1395.429061104433</v>
       </c>
       <c r="M23" t="n">
         <v>2373.979363934262</v>
@@ -6023,16 +6023,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6042,34 +6042,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L24" t="n">
         <v>794.2006632320243</v>
@@ -6084,16 +6084,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>709.4168978689405</v>
+        <v>414.613856788637</v>
       </c>
       <c r="C25" t="n">
-        <v>540.4807149410336</v>
+        <v>245.6776738607301</v>
       </c>
       <c r="D25" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E25" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1918.367529652045</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1629.264662777688</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>1629.264662777688</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W25" t="n">
-        <v>1339.847492740728</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X25" t="n">
-        <v>1111.85794184271</v>
+        <v>596.2623216188767</v>
       </c>
       <c r="Y25" t="n">
-        <v>891.0653626991802</v>
+        <v>596.2623216188767</v>
       </c>
     </row>
     <row r="26">
@@ -6206,7 +6206,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6221,28 +6221,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,19 +6300,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516144</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,16 +6449,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6470,13 +6470,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6543,25 +6543,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>542.9134462654469</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>542.9134462654469</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>1140.291933891999</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N30" t="n">
-        <v>1767.889897446606</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150027</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G31" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L33" t="n">
-        <v>943.510265746755</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>1540.888753373307</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384027</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,37 +6947,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>139.2347658407936</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>139.2347658407936</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>634.5603720565524</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M36" t="n">
-        <v>1231.938859683104</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,22 +7093,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
         <v>2496.057455973196</v>
@@ -7120,7 +7120,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7160,28 +7160,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7190,13 +7190,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273912</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.230692780394</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516149</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167374</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>1540.888753373306</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373306</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
         <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7333,31 +7333,31 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656415</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.34019938252</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973198</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931275</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192612</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075818</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756268</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756268</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>738.788911791386</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417939</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1963.765362972546</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O42" t="n">
-        <v>2515.675093211833</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319335</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150027</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380733</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231133</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656415</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931275</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532433</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594057</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7634,16 +7634,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7728,22 +7728,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516142</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.652278938886</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656812</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150018</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942649</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580108</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634547</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7825,7 +7825,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931273</v>
@@ -7834,22 +7834,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8690,28 +8690,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>304.73518059997</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>248.8012738805281</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8933,19 +8933,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>13.98823883547152</v>
+        <v>304.73518059997</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9164,28 +9164,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>297.2174916798473</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>11.64153443578837</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>316.1012371454199</v>
+        <v>103.7862464855135</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9638,13 +9638,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>192.1853085771341</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>160.3329896347522</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10829,10 +10829,10 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>-5.599732078484455e-13</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>-2.150156243602475e-12</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,7 +22553,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>123.1632375824577</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22562,7 +22562,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>55.08100475705646</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>264.9547875146816</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>25.29062639767818</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -22756,22 +22756,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>117.5062691663784</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.14213605696489</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,7 +23422,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23434,7 +23434,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>129.2760184313258</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>9.849486838608044</v>
       </c>
       <c r="G16" t="n">
-        <v>161.2261955696866</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>231.2436882615915</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.3211098256413</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,10 +24184,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>110.6703674348498</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24370,10 +24370,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>181.9527721880366</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>202.3519294917586</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>24.63391537253449</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>139.9994244361419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>-1.583178160801231e-13</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1296800.45132632</v>
+        <v>1296800.451326321</v>
       </c>
     </row>
     <row r="16">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>127404.9915220615</v>
+        <v>127404.9915220616</v>
       </c>
       <c r="C2" t="n">
         <v>143682.3097262497</v>
@@ -26320,13 +26320,13 @@
         <v>143682.3097262497</v>
       </c>
       <c r="E2" t="n">
-        <v>138978.6254104441</v>
+        <v>138978.625410444</v>
       </c>
       <c r="F2" t="n">
-        <v>138978.6254104441</v>
+        <v>138978.625410444</v>
       </c>
       <c r="G2" t="n">
-        <v>138978.6254104441</v>
+        <v>138978.625410444</v>
       </c>
       <c r="H2" t="n">
         <v>138978.6254104441</v>
@@ -26338,10 +26338,10 @@
         <v>141250.6549457511</v>
       </c>
       <c r="K2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="L2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="M2" t="n">
         <v>143682.3097262497</v>
@@ -26353,7 +26353,7 @@
         <v>143682.3097262497</v>
       </c>
       <c r="P2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>376527.1335735916</v>
+        <v>376527.1335735915</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363106</v>
+        <v>19427.71799363178</v>
       </c>
     </row>
     <row r="4">
@@ -26421,40 +26421,40 @@
         <v>192206.5963924298</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709184</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709184</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="I4" t="n">
-        <v>21619.60799709185</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="J4" t="n">
-        <v>4457.648636658141</v>
+        <v>4457.648636658147</v>
       </c>
       <c r="K4" t="n">
-        <v>12448.50789975159</v>
+        <v>12448.5078997516</v>
       </c>
       <c r="L4" t="n">
-        <v>12448.50789975159</v>
+        <v>12448.5078997516</v>
       </c>
       <c r="M4" t="n">
-        <v>12448.50789975156</v>
+        <v>12448.50789975161</v>
       </c>
       <c r="N4" t="n">
-        <v>12448.5078997515</v>
+        <v>12448.5078997516</v>
       </c>
       <c r="O4" t="n">
-        <v>12448.50789975154</v>
+        <v>12448.5078997516</v>
       </c>
       <c r="P4" t="n">
         <v>12448.5078997516</v>
@@ -26476,19 +26476,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="I5" t="n">
         <v>96383.51825371364</v>
-      </c>
-      <c r="I5" t="n">
-        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-684539.6632369097</v>
+        <v>-684772.1963541122</v>
       </c>
       <c r="C6" t="n">
         <v>-131383.3647295895</v>
@@ -26528,40 +26528,40 @@
         <v>-131383.3647295895</v>
       </c>
       <c r="E6" t="n">
-        <v>-706401.914833768</v>
+        <v>-706469.110323994</v>
       </c>
       <c r="F6" t="n">
-        <v>20975.49915963854</v>
+        <v>20908.30366941273</v>
       </c>
       <c r="G6" t="n">
-        <v>20975.49915963864</v>
+        <v>20908.30366941273</v>
       </c>
       <c r="H6" t="n">
-        <v>20975.49915963855</v>
+        <v>20908.30366941276</v>
       </c>
       <c r="I6" t="n">
-        <v>20975.4991596386</v>
+        <v>20908.30366941277</v>
       </c>
       <c r="J6" t="n">
-        <v>-340856.6570884057</v>
+        <v>-340891.3950138413</v>
       </c>
       <c r="K6" t="n">
-        <v>8641.967978950895</v>
+        <v>8641.967978950852</v>
       </c>
       <c r="L6" t="n">
-        <v>28069.68597258267</v>
+        <v>28069.68597258264</v>
       </c>
       <c r="M6" t="n">
         <v>-101572.6288663621</v>
       </c>
       <c r="N6" t="n">
-        <v>28069.68597258281</v>
+        <v>28069.68597258267</v>
       </c>
       <c r="O6" t="n">
-        <v>28069.68597258275</v>
+        <v>28069.68597258269</v>
       </c>
       <c r="P6" t="n">
-        <v>8641.967978951579</v>
+        <v>8641.967978950881</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>24.28464749203971</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203967</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203967</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203967</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26771,10 +26771,10 @@
         <v>1367.975500341674</v>
       </c>
       <c r="N3" t="n">
-        <v>1367.975500341675</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341675</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="P3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26820,10 +26820,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762115</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.587056029174074e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>652.4826302492738</v>
+        <v>652.4826302492741</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>258.7671324898041</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27430,13 +27430,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>121.143336248891</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>24.56890738984538</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>270.2640948807912</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>44.77564309126763</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>51.79469286292885</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0.04372617964787651</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>260.2007456957649</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>64.25070963099209</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,7 +28029,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>83.66482412898324</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
         <v>45.19995918853701</v>
@@ -28059,25 +28059,25 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>56.69292621882468</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28305,7 +28305,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28506,7 +28506,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1.602510716717613e-12</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -29281,7 +29281,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30520,7 +30520,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32789,7 +32789,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>244.0266243181827</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33263,13 +33263,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>440.316328560036</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>502.5232631188761</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,22 +33494,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>218.6425359394819</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>506.5895320981981</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33518,7 +33518,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>170.9292585737925</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348437</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135344</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.544175081758</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175681</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159432</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460034</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236513</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669226</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043728</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.0736191065153</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.307619600775</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420757</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422589</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473077</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>613.252904837101</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>602.8420149078241</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437247</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214701</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418562</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742442</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937735</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275956</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189905</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121572</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869279</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796263</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.602080235518</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588156</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392048</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.676771792006</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515929</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532769</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467223</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348438</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135345</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663287</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162568</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175683</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159433</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460035</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236514</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669227</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043728</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.0736191065153</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078749</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659452</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521103</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420757</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473078</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862127</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071791</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437249</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P42" t="n">
-        <v>171.7382405950793</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742443</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937735</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275956</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189905</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121572</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869281</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796263</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.602080235518</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588156</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392048</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106792</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.676771792006</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417317</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515929</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.9903120353277</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467223</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34448,25 +34448,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>671.9287955253226</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>336.3457189021236</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34793,10 +34793,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,19 +35021,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,7 +35264,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>641.9264671553705</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>756.8542747687471</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35580,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>522.0412397236905</v>
+        <v>812.7881814881891</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306783</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35817,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>805.2704925680664</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>262.4358392395079</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36121,25 +36121,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>653.2925237008203</v>
+        <v>440.977533040914</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>529.3765951325346</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>615.9231040270844</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
@@ -36437,7 +36437,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>101.8925903961643</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>302.474889585677</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>368.5488557045459</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37087,10 +37087,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,22 +37142,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>368.0351523183239</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37166,7 +37166,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>44.09163190712581</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
         <v>418.6266618111712</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317398</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396423</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367775</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462694</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902925</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243166</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683818</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924731</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774986</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.158224775409</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678999</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674335</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>471.1188709150827</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992803</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071399</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789222</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016748</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111714</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.557074493085</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819473</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980853</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986648</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919382</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317426</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396424</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462697</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902955</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193525</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224312</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683818</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924732</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902407</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.158224775409</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674336</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641945</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238458</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992804</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P42" t="n">
-        <v>37.7638331807491</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016748</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111714</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930851</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819474</v>
+        <v>445.910780481947</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980854</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986648</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919382</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38096,25 +38096,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>529.7947616033043</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>205.0040068187903</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
